--- a/SEMNOME/Arquivos/CPUs.xlsx
+++ b/SEMNOME/Arquivos/CPUs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23bb0f48f97e1798/_APS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Codes\Python-Codes\SEMNOME\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6487A71D7AA86801C4CCE4B990B79E26343E0DB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66A140C3-6BA7-413D-8211-E276B4309A12}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981927E2-3AB7-47A6-84A7-2C2F91544C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19298" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPUs" sheetId="1" r:id="rId1"/>
@@ -943,39 +943,39 @@
     <xf numFmtId="4" fontId="29" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="25" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,11 +1314,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -1329,75 +1329,75 @@
     <col min="10" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>462.26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -1470,10 +1470,10 @@
       <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="12" t="s">
         <v>22</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -1500,10 +1500,10 @@
       <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="12" t="s">
         <v>28</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>9.74</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -1530,10 +1530,10 @@
       <c r="D9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>23.54</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
@@ -1560,10 +1560,10 @@
       <c r="D10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="17" t="s">
         <v>33</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>30</v>
       </c>
@@ -1590,10 +1590,10 @@
       <c r="D11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="17" t="s">
         <v>22</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
@@ -1620,10 +1620,10 @@
       <c r="D12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="17" t="s">
         <v>36</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
@@ -1650,10 +1650,10 @@
       <c r="D13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="33"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="17" t="s">
         <v>36</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -1691,7 +1691,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -1703,15 +1703,15 @@
         <v>110.94</v>
       </c>
       <c r="G15" s="26"/>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="34"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="27">
         <v>573.20000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="1.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="1.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1723,7 +1723,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>55.59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
@@ -1796,10 +1796,10 @@
       <c r="D19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="12" t="s">
         <v>28</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
@@ -1826,10 +1826,10 @@
       <c r="D20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="37"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="12" t="s">
         <v>28</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>46.21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -1867,7 +1867,7 @@
         <v>43.11</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -1879,15 +1879,15 @@
         <v>13.34</v>
       </c>
       <c r="G22" s="26"/>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="27">
         <v>68.930000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="1.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="1.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1899,7 +1899,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>195.66</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
@@ -1972,10 +1972,10 @@
       <c r="D26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="37"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="12" t="s">
         <v>28</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>33.020000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -2002,10 +2002,10 @@
       <c r="D27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="37"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="12" t="s">
         <v>28</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>162.63999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -2043,7 +2043,7 @@
         <v>151.72</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -2055,15 +2055,15 @@
         <v>46.95</v>
       </c>
       <c r="G29" s="26"/>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="34"/>
+      <c r="I29" s="30"/>
       <c r="J29" s="27">
         <v>242.61</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="1.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="1.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2075,7 +2075,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>18</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>83.26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>23</v>
       </c>
@@ -2148,10 +2148,10 @@
       <c r="D33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="37"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="12" t="s">
         <v>28</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>83.26</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -2189,7 +2189,7 @@
         <v>63.96</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -2201,150 +2201,117 @@
         <v>19.98</v>
       </c>
       <c r="G35" s="26"/>
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="34"/>
+      <c r="I35" s="30"/>
       <c r="J35" s="27">
         <v>103.24</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="1.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" ht="1.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39">
+        <v>609261.69999999995</v>
+      </c>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39">
+        <v>146131.74</v>
+      </c>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="24"/>
       <c r="E39" s="23"/>
-      <c r="F39" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="32">
-        <v>609261.69999999995</v>
-      </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="32">
-        <v>146131.74</v>
-      </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="31" t="s">
+      <c r="F39" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="32">
+      <c r="G39" s="38"/>
+      <c r="H39" s="39">
         <v>755393.44</v>
       </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-    </row>
-    <row r="42" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-    </row>
-    <row r="43" spans="1:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="28" t="s">
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" spans="1:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="H22:I22"/>
@@ -2355,16 +2322,25 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
